--- a/DenisAsenov/Lesson 8/Period for booking a car.xlsx
+++ b/DenisAsenov/Lesson 8/Period for booking a car.xlsx
@@ -109,13 +109,15 @@
     <t>P1</t>
   </si>
   <si>
-    <t xml:space="preserve">Go to index.html
+    <t>Go to "https://phptravels.com/demo/"
 Click on "HTTP:WWW.PHPTRAVELS.NET" 
 Click on "CARS" on the upper site of the website
-Select car
-Select "Pick up" and "Drop off"
+Scrow the page to the bottom
+Select a car, no matter which one 
+Select "Pick up" and "Drop off" from the menu
 Then you can write wtahever date you want.
-</t>
+Result: wrong date
+Expected: To be limited from today to 2 years in the future</t>
   </si>
 </sst>
 </file>
@@ -204,15 +206,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,7 +566,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B13" sqref="B11:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,24 +578,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -609,7 +611,7 @@
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -617,7 +619,7 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -629,11 +631,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -673,7 +675,7 @@
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
     </row>

--- a/DenisAsenov/Lesson 8/Period for booking a car.xlsx
+++ b/DenisAsenov/Lesson 8/Period for booking a car.xlsx
@@ -566,7 +566,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B11:B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
